--- a/Technical Projects/A3D Mirage - Compact DIY 3D Printer/Notes and Guides/Notes_A3D_Mirage.xlsx
+++ b/Technical Projects/A3D Mirage - Compact DIY 3D Printer/Notes and Guides/Notes_A3D_Mirage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capayel\Documents\Github\PMNaty\Portfolio\Technical Projects\A3D Mirage - Compact DIY 3D Printer\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capayel\Documents\Github\PMNaty\Portfolio\Technical Projects\A3D Mirage - Compact DIY 3D Printer\Notes and Guides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D691B288-7817-405B-9125-CF52EDF2690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89345545-9FF0-4C12-84C6-AD62B6648F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="1065" windowWidth="9915" windowHeight="14535" firstSheet="1" activeTab="1" xr2:uid="{3D81DF33-2C0F-4253-AD94-7B906C199057}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D81DF33-2C0F-4253-AD94-7B906C199057}"/>
   </bookViews>
   <sheets>
     <sheet name="A3D Notes" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
   <si>
     <t>-</t>
   </si>
@@ -169,9 +169,6 @@
     <t>C.)</t>
   </si>
   <si>
-    <t>The tight fit ensures that we minimize the exposure from outside the printer</t>
-  </si>
-  <si>
     <t>REMOVING/ATTACHING THE TOPHAT AND DOOR</t>
   </si>
   <si>
@@ -226,24 +223,9 @@
     <t>Always shutdown using the Shutdown Macro. You can safely turn off power after 5 seconds of the lights being off</t>
   </si>
   <si>
-    <t>Goto other sheet</t>
-  </si>
-  <si>
-    <t>Unfortunately, I tried to make this a passable parameter, but there is a bug where the brightness increases</t>
-  </si>
-  <si>
-    <t>on each call of the LED effect.</t>
-  </si>
-  <si>
-    <t>You have to manually change the colors under</t>
-  </si>
-  <si>
     <t>Changing default LED colors</t>
   </si>
   <si>
-    <t>Just make sure that the static and non static effect has a matching color</t>
-  </si>
-  <si>
     <t>e.g., ready_b and ready_b_static</t>
   </si>
   <si>
@@ -271,9 +253,6 @@
     <t>&lt;= Update this</t>
   </si>
   <si>
-    <t>configs/lights-cfg/lights_led_effects_A3D.cfg</t>
-  </si>
-  <si>
     <t>variable_main_r: 1</t>
   </si>
   <si>
@@ -298,9 +277,6 @@
     <t>You can also change temporarily in the Miscellaneous</t>
   </si>
   <si>
-    <t>Display Logo is fixed and cannot be changed manually</t>
-  </si>
-  <si>
     <t>You can change default colors by updating parameters under variables_A3D.cfg</t>
   </si>
   <si>
@@ -332,13 +308,95 @@
   </si>
   <si>
     <t>When preheating chamber using the macro, always execute stop preheat macro before any operation</t>
+  </si>
+  <si>
+    <t>Unfortunately, I tried to make this a passable parameter, but there is a bug where the brightness increases on each call of the LED effect.</t>
+  </si>
+  <si>
+    <r>
+      <t>You have to manually change the colors under</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> configs/lights-cfg/lights_led_effects_A3D.cfg</t>
+    </r>
+  </si>
+  <si>
+    <t>The Display Logo color is fixed and cannot be changed manually</t>
+  </si>
+  <si>
+    <t>Goto Remove-Attach Tophat and Door Sheet</t>
+  </si>
+  <si>
+    <t>When performing any tuning procedure, especially when operated via the Display, please complete the existing operation first before proceeding to other matters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. </t>
+  </si>
+  <si>
+    <t>You could still access and execute the UNLOAD FILAMENT ASSISTING MACROS WHILE PERFORMING A LOAD FILAMENT</t>
+  </si>
+  <si>
+    <t>The tight fit ensures that we minimize the exposure from the outside</t>
+  </si>
+  <si>
+    <t>When encountering a GCODE error that stops the print, reset the LED lights using "LED_RESET" macro</t>
+  </si>
+  <si>
+    <t>The idle timeout is set to 10 mins., this stops the printer and resets the status to standy, no need to Stop Preheat</t>
+  </si>
+  <si>
+    <t>Excluded Priming Area</t>
+  </si>
+  <si>
+    <t>Pause/Resume is not setup properly. When a print pauses, there is a high chance of failure when resuming the print</t>
+  </si>
+  <si>
+    <t>10.)</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>No filament detected in toolhead on startup</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>Green Flashing</t>
+  </si>
+  <si>
+    <t>LED Main Orange + Gradient Flashing Similar to above effect + Slow Yellow Flashing of Toolhead</t>
+  </si>
+  <si>
+    <t>Preheating</t>
+  </si>
+  <si>
+    <t>Just make sure that the static and non static effect has a matching color for effects that have static effects</t>
+  </si>
+  <si>
+    <t>You can edit the color of any effect. By your choice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,8 +472,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +516,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -481,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,12 +572,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,6 +610,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -555,6 +634,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF008000"/>
       <color rgb="FFFF99FF"/>
@@ -580,13 +660,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>222404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>115359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -624,13 +704,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>159916</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>67668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>148870</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>68115</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -690,13 +770,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>159916</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>121488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>148870</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>121935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -756,13 +836,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>137901</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -800,13 +880,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>1752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -838,6 +918,116 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238393</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>228573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59214</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>1464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF2CF95-D82D-8CB7-592B-85AEF4E19985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="985739" y="20157804"/>
+          <a:ext cx="2810206" cy="2511695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139210</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>183172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168519</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>212481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77674EDD-A6A4-E6AD-C120-3DB3BDDA37A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3128595" y="22105326"/>
+          <a:ext cx="278424" cy="278424"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="EE0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2229,349 +2419,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ECFAF4-E680-4E13-A27E-2F413A1871CC}">
-  <dimension ref="B2:U79"/>
+  <dimension ref="B2:U102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.7109375" style="7"/>
-    <col min="3" max="3" width="3.7109375" style="21"/>
+    <col min="3" max="3" width="3.7109375" style="19"/>
     <col min="4" max="16384" width="3.7109375" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>59</v>
+      <c r="D2" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="8"/>
       <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="22"/>
+      <c r="F12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="18" t="s">
+    </row>
+    <row r="16" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="8"/>
-      <c r="E9" s="11"/>
-      <c r="H9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="7" t="s">
+    <row r="17" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="12"/>
-      <c r="E12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
+    <row r="19" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="25"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="14"/>
+      <c r="E73" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="14"/>
+      <c r="C75" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="O76" s="12"/>
+    </row>
+    <row r="77" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="15" t="s">
+    <row r="83" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="E83" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G44" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="7"/>
-      <c r="E66" s="7" t="s">
+    <row r="85" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="7" t="s">
+      <c r="O102" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-    </row>
-    <row r="69" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="D70" s="17"/>
-      <c r="O70" s="14"/>
-    </row>
-    <row r="71" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O76" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D77" s="18"/>
-    </row>
-    <row r="79" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D76" location="'Remove-Attach Tophat and Door'!A1" display="Removing / Attaching the Tophat" xr:uid="{CD491AC7-29A0-4D3D-8A20-D42EA072A167}"/>
+    <hyperlink ref="D102" location="'Remove-Attach Tophat and Door'!A1" display="Removing / Attaching the Tophat" xr:uid="{CD491AC7-29A0-4D3D-8A20-D42EA072A167}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2579,22 +2866,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B0EDC2-E4A1-4746-BFCB-48845DBD594E}">
   <dimension ref="B1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="AI107" sqref="AI107:AI108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2777,7 +3064,7 @@
         <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
